--- a/Crawling/music/crawled_data/mod_flo/live_flo_20220515_110006.xlsx
+++ b/Crawling/music/crawled_data/mod_flo/live_flo_20220515_110006.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="248">
   <si>
     <t>사이트</t>
   </si>
@@ -670,7 +670,7 @@
     <t>SM</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>스윙</t>
@@ -758,9 +758,6 @@
   </si>
   <si>
     <t>BRAVE</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1170,7 @@
         <v>211</v>
       </c>
       <c r="H2" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1225,7 +1222,7 @@
         <v>213</v>
       </c>
       <c r="H4" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1251,7 +1248,7 @@
         <v>214</v>
       </c>
       <c r="H5" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1303,7 +1300,7 @@
         <v>213</v>
       </c>
       <c r="H7" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1329,7 +1326,7 @@
         <v>216</v>
       </c>
       <c r="H8" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1355,7 +1352,7 @@
         <v>213</v>
       </c>
       <c r="H9" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1381,7 +1378,7 @@
         <v>213</v>
       </c>
       <c r="H10" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1407,7 +1404,7 @@
         <v>213</v>
       </c>
       <c r="H11" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1459,7 +1456,7 @@
         <v>213</v>
       </c>
       <c r="H13" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1485,7 +1482,7 @@
         <v>216</v>
       </c>
       <c r="H14" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1511,7 +1508,7 @@
         <v>218</v>
       </c>
       <c r="H15" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1537,7 +1534,7 @@
         <v>213</v>
       </c>
       <c r="H16" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1563,7 +1560,7 @@
         <v>213</v>
       </c>
       <c r="H17" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1615,7 +1612,7 @@
         <v>213</v>
       </c>
       <c r="H19" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1641,7 +1638,7 @@
         <v>213</v>
       </c>
       <c r="H20" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1667,7 +1664,7 @@
         <v>213</v>
       </c>
       <c r="H21" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1693,7 +1690,7 @@
         <v>213</v>
       </c>
       <c r="H22" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1719,7 +1716,7 @@
         <v>213</v>
       </c>
       <c r="H23" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1745,7 +1742,7 @@
         <v>213</v>
       </c>
       <c r="H24" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1771,7 +1768,7 @@
         <v>220</v>
       </c>
       <c r="H25" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1797,7 +1794,7 @@
         <v>221</v>
       </c>
       <c r="H26" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1823,7 +1820,7 @@
         <v>222</v>
       </c>
       <c r="H27" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1849,7 +1846,7 @@
         <v>223</v>
       </c>
       <c r="H28" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1875,7 +1872,7 @@
         <v>224</v>
       </c>
       <c r="H29" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1927,7 +1924,7 @@
         <v>225</v>
       </c>
       <c r="H31" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1953,7 +1950,7 @@
         <v>226</v>
       </c>
       <c r="H32" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1979,7 +1976,7 @@
         <v>227</v>
       </c>
       <c r="H33" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2031,7 +2028,7 @@
         <v>211</v>
       </c>
       <c r="H35" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2057,7 +2054,7 @@
         <v>228</v>
       </c>
       <c r="H36" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2083,7 +2080,7 @@
         <v>211</v>
       </c>
       <c r="H37" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2109,7 +2106,7 @@
         <v>229</v>
       </c>
       <c r="H38" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2135,7 +2132,7 @@
         <v>222</v>
       </c>
       <c r="H39" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2161,7 +2158,7 @@
         <v>230</v>
       </c>
       <c r="H40" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2213,7 +2210,7 @@
         <v>227</v>
       </c>
       <c r="H42" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2239,7 +2236,7 @@
         <v>221</v>
       </c>
       <c r="H43" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2265,7 +2262,7 @@
         <v>227</v>
       </c>
       <c r="H44" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2291,7 +2288,7 @@
         <v>224</v>
       </c>
       <c r="H45" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2317,7 +2314,7 @@
         <v>224</v>
       </c>
       <c r="H46" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2369,7 +2366,7 @@
         <v>214</v>
       </c>
       <c r="H48" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2395,7 +2392,7 @@
         <v>231</v>
       </c>
       <c r="H49" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2447,7 +2444,7 @@
         <v>232</v>
       </c>
       <c r="H51" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2473,7 +2470,7 @@
         <v>233</v>
       </c>
       <c r="H52" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2499,7 +2496,7 @@
         <v>216</v>
       </c>
       <c r="H53" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2525,7 +2522,7 @@
         <v>224</v>
       </c>
       <c r="H54" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2551,7 +2548,7 @@
         <v>234</v>
       </c>
       <c r="H55" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2577,7 +2574,7 @@
         <v>211</v>
       </c>
       <c r="H56" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2655,7 +2652,7 @@
         <v>218</v>
       </c>
       <c r="H59" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2707,7 +2704,7 @@
         <v>224</v>
       </c>
       <c r="H61" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2733,7 +2730,7 @@
         <v>227</v>
       </c>
       <c r="H62" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2759,7 +2756,7 @@
         <v>236</v>
       </c>
       <c r="H63" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2785,7 +2782,7 @@
         <v>224</v>
       </c>
       <c r="H64" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2811,7 +2808,7 @@
         <v>231</v>
       </c>
       <c r="H65" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2837,7 +2834,7 @@
         <v>237</v>
       </c>
       <c r="H66" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2863,7 +2860,7 @@
         <v>224</v>
       </c>
       <c r="H67" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2889,7 +2886,7 @@
         <v>224</v>
       </c>
       <c r="H68" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2915,7 +2912,7 @@
         <v>220</v>
       </c>
       <c r="H69" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2941,7 +2938,7 @@
         <v>238</v>
       </c>
       <c r="H70" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3019,7 +3016,7 @@
         <v>239</v>
       </c>
       <c r="H73" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3045,7 +3042,7 @@
         <v>211</v>
       </c>
       <c r="H74" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3071,7 +3068,7 @@
         <v>240</v>
       </c>
       <c r="H75" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3123,7 +3120,7 @@
         <v>241</v>
       </c>
       <c r="H77" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3149,7 +3146,7 @@
         <v>242</v>
       </c>
       <c r="H78" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3201,7 +3198,7 @@
         <v>216</v>
       </c>
       <c r="H80" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3227,7 +3224,7 @@
         <v>243</v>
       </c>
       <c r="H81" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3253,7 +3250,7 @@
         <v>227</v>
       </c>
       <c r="H82" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3279,7 +3276,7 @@
         <v>240</v>
       </c>
       <c r="H83" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3305,7 +3302,7 @@
         <v>244</v>
       </c>
       <c r="H84" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3331,7 +3328,7 @@
         <v>242</v>
       </c>
       <c r="H85" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3383,7 +3380,7 @@
         <v>245</v>
       </c>
       <c r="H87" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3409,7 +3406,7 @@
         <v>218</v>
       </c>
       <c r="H88" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3435,7 +3432,7 @@
         <v>240</v>
       </c>
       <c r="H89" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3487,7 +3484,7 @@
         <v>242</v>
       </c>
       <c r="H91" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3513,7 +3510,7 @@
         <v>246</v>
       </c>
       <c r="H92" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3565,7 +3562,7 @@
         <v>247</v>
       </c>
       <c r="H94" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3591,7 +3588,7 @@
         <v>242</v>
       </c>
       <c r="H95" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3643,7 +3640,7 @@
         <v>242</v>
       </c>
       <c r="H97" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3669,7 +3666,7 @@
         <v>227</v>
       </c>
       <c r="H98" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3695,7 +3692,7 @@
         <v>242</v>
       </c>
       <c r="H99" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3721,7 +3718,7 @@
         <v>211</v>
       </c>
       <c r="H100" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3747,7 +3744,7 @@
         <v>218</v>
       </c>
       <c r="H101" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
